--- a/Assets/ArtRes/Excel/SceneData.xlsx
+++ b/Assets/ArtRes/Excel/SceneData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\YM\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C9BC4-FC2F-48EE-81BE-739A7313054A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196580F5-74AA-4632-B7EA-B2830E45C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1230" windowWidth="34920" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3525" windowWidth="35145" windowHeight="17325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneData" sheetId="1" r:id="rId1"/>
-    <sheet name="SceneSwitchUnitData" sheetId="2" r:id="rId2"/>
-    <sheet name="SceneLoadData" sheetId="3" r:id="rId3"/>
+    <sheet name="SceneLoadData" sheetId="5" r:id="rId2"/>
+    <sheet name="MonsterLoadData" sheetId="4" r:id="rId3"/>
+    <sheet name="NPCLoadData" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t>sceneId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>positionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,22 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;string&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;Vector3&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>conditionUnitList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditionUnitPositionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>场景ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,45 +58,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要加载的单位名称列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位加载的位置列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要条件的单位列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要条件的单位位置列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>conditionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要的条件列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=10003&amp;test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Vector3&gt;</t>
-  </si>
-  <si>
     <t>Dictionary&lt;int,Vector3&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,54 +74,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unitID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchSceneName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testScene1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vector3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场景单位的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换到目标场景后，玩家的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该场景单位切换的目标场景名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加载的数据id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属于哪个场景的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DongQi_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,81 +89,10 @@
     <t>DongQi_2</t>
   </si>
   <si>
-    <t>4002</t>
-  </si>
-  <si>
-    <t>testScene2</t>
-  </si>
-  <si>
-    <t>0,0,2</t>
-  </si>
-  <si>
-    <t>4003</t>
-  </si>
-  <si>
-    <t>testScene3</t>
-  </si>
-  <si>
-    <t>0,0,3</t>
-  </si>
-  <si>
-    <t>4004</t>
-  </si>
-  <si>
-    <t>testScene4</t>
-  </si>
-  <si>
-    <t>0,0,4</t>
-  </si>
-  <si>
-    <t>type=10004&amp;test</t>
-  </si>
-  <si>
-    <t>2,3,5</t>
-  </si>
-  <si>
-    <t>4001&amp;-6.23,-1.93,0
-4002&amp;3.5,-1.8,0
-4003&amp;9,-1.8,0
-4004&amp;15,-1.8,0
-4005&amp;27,-1,0
-4006&amp;34,-1,0
-4007&amp;35.75,-1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2.1,-2.52,0
--3.2,-2.52,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.3,-1.8,0
--3.5,-1.8,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unitIdList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200004
-200005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100002
-100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sceneSwicthUnitAndSceneMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,16 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4001&amp;1002-4008
-4002&amp;1002-4008
-4003&amp;1002-4008
-4004&amp;1002-4008
-4005&amp;1002-4008
-4006&amp;1002-4008
-4007&amp;1002-4008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,26 +116,6 @@
     <t>1002</t>
   </si>
   <si>
-    <t>4008&amp;8,-3.5,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4008&amp;1001-4004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午场景默认的加载数据的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午场景默认的加载数据的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上场景默认的加载数据的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nightSceneLoadDataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,6 +125,424 @@
   </si>
   <si>
     <t>pmSceneLoadDataID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DongQi_3</t>
+  </si>
+  <si>
+    <t>DongQi_4</t>
+  </si>
+  <si>
+    <t>Hotel_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponStore_1</t>
+  </si>
+  <si>
+    <t>1&amp;8.28,-2.9,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1001-3
+2&amp;1001-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1001-2
+2&amp;1001-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1003-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1004-1
+2&amp;1001-5
+3&amp;1001-5
+4&amp;1001-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;-4.5,-4,0
+2&amp;0,-4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;-6.23,-2.5,0
+2&amp;3.5,-2.5,0
+3&amp;9,-2.5,0
+4&amp;15,-2.5,0
+5&amp;27,-1.5,0
+6&amp;34,-1.5,0
+7&amp;35.75,-1.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;8,-3.5,0
+2&amp;2,-3.5,0
+3&amp;-7,-3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;-18,-3,0
+2&amp;-6.41,-3.5,0
+3&amp;5.55,-3.5,0
+4&amp;8.15,-3.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;-4.5,-4,0
+2&amp;1.5,-4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arche‘sHome</t>
+  </si>
+  <si>
+    <t>1&amp;-3.5,-4,0
+2&amp;2.5,-4,0
+3&amp;0.5,-1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1002-2
+2&amp;1002-3
+3&amp;1002-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC'sHome1</t>
+  </si>
+  <si>
+    <t>1&amp;4.5,-4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1002-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1001-4
+2&amp;1007-1
+3&amp;1008-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field_1</t>
+  </si>
+  <si>
+    <t>1&amp;1002-1
+2&amp;1005-2
+3&amp;1006-1
+4&amp;1002-1
+5&amp;1003-4
+6&amp;1003-4
+7&amp;1009-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;-16.5,-2.5,0
+2&amp;27.15,-2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1001-7
+2&amp;1010-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;-18,-2.5,0
+2&amp;9.15,-2.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;-18.9,-2.5,0
+2&amp;22.75,-5.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School_1</t>
+  </si>
+  <si>
+    <t>1&amp;-16.25,-2.5,0
+2&amp;7,-3.5,0
+3&amp;19,-3.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School_2</t>
+  </si>
+  <si>
+    <t>1&amp;-2,-4,0
+2&amp;3,-4,0
+3&amp;6.5,-4,0
+4&amp;10,-4,0
+5&amp;15,-4,0
+6&amp;-2,-1,0
+7&amp;6,-1,0
+8&amp;10,-1,0
+9&amp;15,-1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchoolLeftArea</t>
+  </si>
+  <si>
+    <t>SchoolRightArea</t>
+  </si>
+  <si>
+    <t>1&amp;-3,-4,0
+2&amp;8,-4,0
+3&amp;-3,-1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;22.5,-4,0
+2&amp;35.5,-4,0
+3&amp;16.5,-1,0
+4&amp;22.5,-1,0
+5&amp;35.5,-1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1013-4
+2&amp;1013-5
+3&amp;1013-7
+4&amp;1013-8
+5&amp;1013-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1014-1
+2&amp;1014-2
+3&amp;1012-2
+4&amp;1015-1
+5&amp;1015-2
+6&amp;1014-3
+7&amp;1015-3
+8&amp;1015-4
+9&amp;1015-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1013-1
+2&amp;1013-2
+3&amp;1013-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1011-2
+2&amp;1013-3
+3&amp;1013-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1010-2
+2&amp;1012-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;1009-2
+2&amp;1011-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午场景默认的加载数据的id（对应SceneLoadData表中的id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午场景默认的加载数据的id（对应SceneLoadData表中的id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上场景默认的加载数据的id（对应SceneLoadData表中的id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrolPoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据id（主要为了唯一性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加载的怪物id
+（对应UnitData表中的id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物生成位置（出生点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个巡逻点坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>300002</t>
+  </si>
+  <si>
+    <t>-1.35,-3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9,-2.5,0
+0,-3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,-2.5,0</t>
+  </si>
+  <si>
+    <t>9.5,-2.5,0
+4.5,-2.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4,-2.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5,-2.5,0
+9.5,-2.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.5,-3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.5,-3.5,0
+26.8,-2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterLoadIdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加载的怪物数据id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcLoadIdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加载的npc数据id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+2
+3
+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加载的npc的id
+（对应UnitData表中的id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFacingRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否朝向右边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC的生成位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc名称
+（方便自己看的，游戏里没使用这数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尔茄妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.0, -2.5, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200005</t>
+  </si>
+  <si>
+    <t>尔茄爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.5, -2.5, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +592,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,8 +890,8 @@
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.375" style="1" customWidth="1"/>
@@ -680,73 +907,73 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -754,16 +981,16 @@
         <v>1001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>1001</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>1001</v>
@@ -772,26 +999,325 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F18" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1002</v>
+      </c>
+      <c r="G19" s="1">
         <v>1002</v>
       </c>
     </row>
@@ -803,103 +1329,208 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1F81DB-C9BE-4457-BEFF-D3185FB0D9DF}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526DEA78-EC92-4AB2-A83A-418715CF24E2}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A6DF2E-ED46-46A6-8721-76CB34D9A42E}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -908,149 +1539,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F68AFED-4F4A-4930-BE2A-2B294CAC51B4}">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCE792F-C138-4417-AA7D-6852580C1394}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>48</v>
+    </row>
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>